--- a/Kenneth/Group_Contributions.xlsx
+++ b/Kenneth/Group_Contributions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenne\Documents\Uni\Group Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenne\Documents\Uni\Group Project\Kenneth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFA4E8E-266F-4032-AC4E-C72B3B067EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE071DD-D891-4657-B6AC-9D1A81E9150E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9540" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,15 +899,27 @@
       <c r="B12" s="6">
         <v>44305</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.10666666666666599</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.22666666666666599</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.10666666666666599</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.16666666666666599</v>
+      </c>
       <c r="J12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.00033333333333</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -917,15 +929,27 @@
       <c r="B13" s="6">
         <v>44312</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="C13" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.16666666666666599</v>
+      </c>
       <c r="J13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99999999999999589</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -937,23 +961,23 @@
       </c>
       <c r="C15" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.16066666666666601</v>
+        <v>0.16669444444444384</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:J15" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.15166666666666601</v>
+        <v>0.14916666666666603</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>0.17566666666666603</v>
+        <v>0.17916666666666603</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>0.178666666666666</v>
+        <v>0.176666666666666</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.16666666666666599</v>
+        <v>0.16166666666666599</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
@@ -961,7 +985,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>0.83333333333333026</v>
+        <v>1.0000277777777742</v>
       </c>
     </row>
   </sheetData>
